--- a/Figures/Region_Results/Relevant_var_SUICM_Region.xlsx
+++ b/Figures/Region_Results/Relevant_var_SUICM_Region.xlsx
@@ -42,157 +42,157 @@
     <t xml:space="preserve">Lasso</t>
   </si>
   <si>
+    <t xml:space="preserve">Continent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Cone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Latin Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost_glm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andean Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost_gam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Americas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Cone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non Latin Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boost_glm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andean Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boost_gam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island</t>
   </si>
   <si>
     <t xml:space="preserve">metrics</t>
@@ -582,7 +582,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.565920205518945</v>
+        <v>0.551849444947332</v>
       </c>
     </row>
     <row r="3">
@@ -605,7 +605,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -614,10 +614,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0001</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.91806093158942</v>
+        <v>-0.0714928975301558</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -637,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0001</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.303466713706692</v>
+        <v>25.1478388269413</v>
       </c>
     </row>
     <row r="5">
@@ -651,7 +651,7 @@
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -660,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0001</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67335842664811</v>
+        <v>0.0382765099583404</v>
       </c>
     </row>
     <row r="6">
@@ -674,7 +674,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -683,10 +683,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0291098107956535</v>
+        <v>1.19996705481177</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
@@ -703,21 +703,21 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0001</v>
       </c>
       <c r="G7" t="n">
-        <v>1.353785214089</v>
+        <v>-6.54554538742495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -726,13 +726,13 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.535860259925616</v>
+        <v>0.0555514099877041</v>
       </c>
     </row>
     <row r="9">
@@ -740,229 +740,229 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0351119173421513</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0315670615369245</v>
+        <v>-0.190330515891465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
-        <v>39</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0351119173421513</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0392238652068836</v>
+        <v>-60.4242481538426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0351119173421513</v>
       </c>
       <c r="G11" t="n">
-        <v>-94.700543601895</v>
+        <v>-0.000263516908228973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0351119173421513</v>
       </c>
       <c r="G12" t="n">
-        <v>-19.2176237604605</v>
+        <v>0.0955975068387207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0351119173421513</v>
       </c>
       <c r="G13" t="n">
-        <v>0.100379121155512</v>
+        <v>-0.0755659069025009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0351119173421513</v>
       </c>
       <c r="G14" t="n">
-        <v>3.79356418675667</v>
+        <v>0.271620392642372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G15" t="n">
-        <v>-30.3728147576778</v>
+        <v>1.353785214089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00337944372220288</v>
+        <v>0.535860259925616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="n">
-        <v>33</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
       <c r="F17" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G17" t="n">
-        <v>0.048571283776813</v>
+        <v>-0.0315670615369245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00106136542315859</v>
+        <v>-0.0392238652068836</v>
       </c>
     </row>
     <row r="19">
@@ -970,257 +970,257 @@
         <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.326524438750414</v>
+        <v>-94.700543601895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0820620371425048</v>
+        <v>-19.2176237604605</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00657933224657568</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00350862126729342</v>
+        <v>0.100379121155512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G22" t="n">
-        <v>11.9410180182133</v>
+        <v>3.79356418675667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0415380961835</v>
+        <v>-30.3728147576778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.729133655188191</v>
+        <v>-0.00337944372220288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G25" t="n">
-        <v>0.435836299145224</v>
+        <v>0.048571283776813</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G26" t="n">
-        <v>0.385917726772532</v>
+        <v>-0.00106136542315859</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.13810185915742</v>
+        <v>-0.326524438750414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G28" t="n">
-        <v>0.10515139431007</v>
+        <v>0.0820620371425048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
-        <v>39</v>
-      </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0951547655340972</v>
+        <v>-0.00350862126729342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>39</v>
@@ -1229,21 +1229,21 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0694683793130256</v>
+        <v>11.9410180182133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>39</v>
@@ -1252,21 +1252,21 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.027435021613114</v>
+        <v>1.0415380961835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>39</v>
@@ -1275,205 +1275,205 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00684933220322193</v>
+        <v>0.729133655188191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0105798907258364</v>
+        <v>0.435836299145224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0151999712417553</v>
+        <v>0.385917726772532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="n">
+        <v>39</v>
+      </c>
+      <c r="C35" t="n">
         <v>11</v>
       </c>
-      <c r="B35" t="n">
-        <v>40</v>
-      </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.449773353604614</v>
+        <v>0.13810185915742</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0117508996399561</v>
+        <v>0.10515139431007</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.273107639816562</v>
+        <v>0.0951547655340972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.426790461570205</v>
+        <v>0.0694683793130256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0600823479739934</v>
+        <v>0.027435021613114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0028480358684358</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0264808623610595</v>
+        <v>0.00684933220322193</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
         <v>40</v>
@@ -1485,18 +1485,18 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F41" t="n">
         <v>0.0028480358684358</v>
       </c>
       <c r="G41" t="n">
-        <v>16.9487419917451</v>
+        <v>0.0105798907258364</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
@@ -1508,335 +1508,335 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F42" t="n">
         <v>0.0028480358684358</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0645140966990726</v>
+        <v>-0.0151999712417553</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B43" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.00595790348394063</v>
+        <v>0.449773353604614</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B44" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G44" t="n">
-        <v>0.297047664184151</v>
+        <v>0.0117508996399561</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G45" t="n">
-        <v>0.242821788592773</v>
+        <v>0.273107639816562</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G46" t="n">
-        <v>0.136270842080219</v>
+        <v>-0.426790461570205</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G47" t="n">
-        <v>0.000240081280593873</v>
+        <v>0.0600823479739934</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G48" t="n">
-        <v>0.140768836366034</v>
+        <v>-0.0264808623610595</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="n">
         <v>40</v>
       </c>
-      <c r="B49" t="n">
-        <v>34</v>
-      </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G49" t="n">
-        <v>-50.4082726504248</v>
+        <v>16.9487419917451</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0028480358684358</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.171996279058795</v>
+        <v>0.0645140966990726</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C51" t="n">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G51" t="n">
-        <v>19.3406496334156</v>
+        <v>-0.00595790348394063</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C52" t="n">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G52" t="n">
-        <v>17.3526560825703</v>
+        <v>0.297047664184151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B53" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C53" t="n">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G53" t="n">
-        <v>16.7652716481646</v>
+        <v>0.242821788592773</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B54" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C54" t="n">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G54" t="n">
-        <v>16.7533933941429</v>
+        <v>0.136270842080219</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B55" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C55" t="n">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G55" t="n">
-        <v>16.5568913227829</v>
+        <v>0.000240081280593873</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B56" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G56" t="n">
-        <v>16.0343814797136</v>
+        <v>0.140768836366034</v>
       </c>
     </row>
     <row r="57">
@@ -1844,114 +1844,114 @@
         <v>18</v>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G57" t="n">
-        <v>15.4087038570003</v>
+        <v>-50.4082726504248</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B58" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C58" t="n">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G58" t="n">
-        <v>13.2636024713424</v>
+        <v>-0.171996279058795</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-102.993045160556</v>
+        <v>19.3406496334156</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B60" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0216832985358067</v>
+        <v>17.3526560825703</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="n">
+        <v>38</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
         <v>46</v>
       </c>
-      <c r="B61" t="n">
-        <v>36</v>
-      </c>
-      <c r="C61" t="n">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.142924944045279</v>
+        <v>16.7652716481646</v>
       </c>
     </row>
     <row r="62">
@@ -1959,280 +1959,280 @@
         <v>33</v>
       </c>
       <c r="B62" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.397885595023041</v>
+        <v>16.7533933941429</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.313165352370369</v>
+        <v>16.5568913227829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B64" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0133202812985562</v>
+        <v>16.0343814797136</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="n">
+        <v>38</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" t="s">
         <v>47</v>
       </c>
-      <c r="B65" t="n">
-        <v>36</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0345238270025008</v>
+        <v>15.4087038570003</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="n">
         <v>38</v>
       </c>
-      <c r="B66" t="n">
-        <v>39</v>
-      </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.41571643682849</v>
+        <v>13.2636024713424</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B67" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C67" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G67" t="n">
-        <v>0.384763573646909</v>
+        <v>-102.993045160556</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B68" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.383960401625622</v>
+        <v>0.0216832985358067</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B69" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G69" t="n">
-        <v>0.380650491317716</v>
+        <v>-0.142924944045279</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B70" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C70" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G70" t="n">
-        <v>0.378525057261865</v>
+        <v>0.397885595023041</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B71" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G71" t="n">
-        <v>0.368440746628296</v>
+        <v>-0.313165352370369</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B72" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C72" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G72" t="n">
-        <v>0.36249060618876</v>
+        <v>0.0133202812985562</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B73" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G73" t="n">
-        <v>0.351998928449517</v>
+        <v>-0.0345238270025008</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B74" t="n">
         <v>39</v>
@@ -2241,21 +2241,21 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.349806426690842</v>
+        <v>0.41571643682849</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B75" t="n">
         <v>39</v>
@@ -2264,21 +2264,21 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.344518594088024</v>
+        <v>0.384763573646909</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B76" t="n">
         <v>39</v>
@@ -2287,21 +2287,21 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.344195692998159</v>
+        <v>0.383960401625622</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B77" t="n">
         <v>39</v>
@@ -2310,21 +2310,21 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.329394447192521</v>
+        <v>0.380650491317716</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B78" t="n">
         <v>39</v>
@@ -2333,21 +2333,21 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.317465490287693</v>
+        <v>0.378525057261865</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B79" t="n">
         <v>39</v>
@@ -2356,21 +2356,21 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.305057345685412</v>
+        <v>0.368440746628296</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B80" t="n">
         <v>39</v>
@@ -2379,21 +2379,21 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.295671948020565</v>
+        <v>0.36249060618876</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B81" t="n">
         <v>39</v>
@@ -2402,21 +2402,21 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.293641299033853</v>
+        <v>0.351998928449517</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B82" t="n">
         <v>39</v>
@@ -2425,21 +2425,21 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.292596018133955</v>
+        <v>0.349806426690842</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B83" t="n">
         <v>39</v>
@@ -2448,211 +2448,211 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.280532623617239</v>
+        <v>0.344518594088024</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.551849444947332</v>
+        <v>0.344195692998159</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B85" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0714928975301558</v>
+        <v>0.329394447192521</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="n">
+        <v>39</v>
+      </c>
+      <c r="C86" t="n">
         <v>18</v>
       </c>
-      <c r="B86" t="n">
-        <v>49</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7</v>
-      </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>25.1478388269413</v>
+        <v>0.317465490287693</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0382765099583404</v>
+        <v>0.305057345685412</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B88" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1.19996705481177</v>
+        <v>0.295671948020565</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B89" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.54554538742495</v>
+        <v>0.293641299033853</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B90" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0555514099877041</v>
+        <v>0.292596018133955</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B91" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0351119173421513</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.190330515891465</v>
+        <v>0.280532623617239</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -2661,21 +2661,21 @@
         <v>59</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0351119173421513</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G92" t="n">
-        <v>-60.4242481538426</v>
+        <v>0.565920205518945</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B93" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -2684,21 +2684,21 @@
         <v>59</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0351119173421513</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.000263516908228973</v>
+        <v>-1.91806093158942</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B94" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -2707,21 +2707,21 @@
         <v>59</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0351119173421513</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0955975068387207</v>
+        <v>-0.303466713706692</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -2730,21 +2730,21 @@
         <v>59</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0351119173421513</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0755659069025009</v>
+        <v>1.67335842664811</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -2753,10 +2753,10 @@
         <v>59</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0351119173421513</v>
+        <v>0.00657933224657568</v>
       </c>
       <c r="G96" t="n">
-        <v>0.271620392642372</v>
+        <v>0.0291098107956535</v>
       </c>
     </row>
   </sheetData>
@@ -2801,19 +2801,19 @@
         <v>67</v>
       </c>
       <c r="B2" t="n">
-        <v>1.04855931780411</v>
+        <v>1.12423420480459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.591792368287504</v>
+        <v>0.570796591949822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.872996326996813</v>
+        <v>0.938156729067755</v>
       </c>
       <c r="E2" t="n">
-        <v>0.79689702660146</v>
+        <v>0.786067970119839</v>
       </c>
       <c r="F2" t="n">
-        <v>0.957874444023394</v>
+        <v>0.723583681589626</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -2824,19 +2824,19 @@
         <v>68</v>
       </c>
       <c r="B3" t="n">
-        <v>1.01204286666122</v>
+        <v>1.08669246732291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.553952250957832</v>
+        <v>0.536789586448831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82878025311656</v>
+        <v>0.893110392100828</v>
       </c>
       <c r="E3" t="n">
-        <v>0.756496277032524</v>
+        <v>0.740446679215298</v>
       </c>
       <c r="F3" t="n">
-        <v>0.870286122699138</v>
+        <v>0.675810852212733</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -2847,22 +2847,22 @@
         <v>67</v>
       </c>
       <c r="B4" t="n">
-        <v>0.384113337262735</v>
+        <v>0.447857691453043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237345470462202</v>
+        <v>0.166947839464165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.440996188100818</v>
+        <v>0.472547103255147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.27685209007725</v>
+        <v>0.627778808967856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.523717077039736</v>
+        <v>0.838177615795556</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2870,22 +2870,22 @@
         <v>68</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316074901956126</v>
+        <v>0.382579933253523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228461456703282</v>
+        <v>0.122864726221043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.419680767503798</v>
+        <v>0.388774274708687</v>
       </c>
       <c r="E5" t="n">
-        <v>0.237590117184145</v>
+        <v>0.604133380538726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.461005144286934</v>
+        <v>0.770421441291469</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2893,22 +2893,22 @@
         <v>67</v>
       </c>
       <c r="B6" t="n">
-        <v>0.242729840082019</v>
+        <v>0.384113337262735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206492286722378</v>
+        <v>0.237345470462202</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317095666855905</v>
+        <v>0.440996188100818</v>
       </c>
       <c r="E6" t="n">
-        <v>0.281948598623026</v>
+        <v>0.27685209007725</v>
       </c>
       <c r="F6" t="n">
-        <v>0.287228828695029</v>
+        <v>0.523717077039736</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -2916,22 +2916,22 @@
         <v>68</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178932958015138</v>
+        <v>0.316074901956126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.152963338783667</v>
+        <v>0.228461456703282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.272512536071431</v>
+        <v>0.419680767503798</v>
       </c>
       <c r="E7" t="n">
-        <v>0.26286698492921</v>
+        <v>0.237590117184145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.281976709444645</v>
+        <v>0.461005144286934</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -2939,19 +2939,19 @@
         <v>67</v>
       </c>
       <c r="B8" t="n">
-        <v>1.02786819422159</v>
+        <v>0.242729840082019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.591056235836606</v>
+        <v>0.206492286722378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.698431299897333</v>
+        <v>0.317095666855905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.308838086522033</v>
+        <v>0.281948598623026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.492480727577921</v>
+        <v>0.287228828695029</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -2962,19 +2962,19 @@
         <v>68</v>
       </c>
       <c r="B9" t="n">
-        <v>1.01268601495803</v>
+        <v>0.178932958015138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.533473666725945</v>
+        <v>0.152963338783667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.675639391423355</v>
+        <v>0.272512536071431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.233384414678608</v>
+        <v>0.26286698492921</v>
       </c>
       <c r="F9" t="n">
-        <v>0.418982892480132</v>
+        <v>0.281976709444645</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -2985,22 +2985,22 @@
         <v>67</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340175487406978</v>
+        <v>1.02786819422159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.197581243010728</v>
+        <v>0.591056235836606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315263677540488</v>
+        <v>0.698431299897333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.355680921484959</v>
+        <v>0.308838086522033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.202916565382945</v>
+        <v>0.492480727577921</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -3008,22 +3008,22 @@
         <v>68</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307018257139678</v>
+        <v>1.01268601495803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.162864458211805</v>
+        <v>0.533473666725945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2766247758851</v>
+        <v>0.675639391423355</v>
       </c>
       <c r="E11" t="n">
-        <v>0.306040277345464</v>
+        <v>0.233384414678608</v>
       </c>
       <c r="F11" t="n">
-        <v>0.169010307669424</v>
+        <v>0.418982892480132</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -3031,22 +3031,22 @@
         <v>67</v>
       </c>
       <c r="B12" t="n">
-        <v>1.33801370661015</v>
+        <v>0.340175487406978</v>
       </c>
       <c r="C12" t="n">
-        <v>0.550585062240236</v>
+        <v>0.197581243010728</v>
       </c>
       <c r="D12" t="n">
-        <v>1.15400564122054</v>
+        <v>0.315263677540488</v>
       </c>
       <c r="E12" t="n">
-        <v>1.08982086154314</v>
+        <v>0.355680921484959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.662092067460164</v>
+        <v>0.202916565382945</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -3054,22 +3054,22 @@
         <v>68</v>
       </c>
       <c r="B13" t="n">
-        <v>1.23790813494999</v>
+        <v>0.307018257139678</v>
       </c>
       <c r="C13" t="n">
-        <v>0.474377418138951</v>
+        <v>0.162864458211805</v>
       </c>
       <c r="D13" t="n">
-        <v>1.03627452514648</v>
+        <v>0.2766247758851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.973236298010161</v>
+        <v>0.306040277345464</v>
       </c>
       <c r="F13" t="n">
-        <v>0.611305430125051</v>
+        <v>0.169010307669424</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -3077,22 +3077,22 @@
         <v>67</v>
       </c>
       <c r="B14" t="n">
-        <v>2.40998441877041</v>
+        <v>1.33801370661015</v>
       </c>
       <c r="C14" t="n">
-        <v>1.2445039540724</v>
+        <v>0.550585062240236</v>
       </c>
       <c r="D14" t="n">
-        <v>2.26095529253204</v>
+        <v>1.15400564122054</v>
       </c>
       <c r="E14" t="n">
-        <v>2.12927568135747</v>
+        <v>1.08982086154314</v>
       </c>
       <c r="F14" t="n">
-        <v>1.08710704991399</v>
+        <v>0.662092067460164</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -3100,22 +3100,22 @@
         <v>68</v>
       </c>
       <c r="B15" t="n">
-        <v>2.34994764788725</v>
+        <v>1.23790813494999</v>
       </c>
       <c r="C15" t="n">
-        <v>1.18841006228874</v>
+        <v>0.474377418138951</v>
       </c>
       <c r="D15" t="n">
-        <v>2.18819908022511</v>
+        <v>1.03627452514648</v>
       </c>
       <c r="E15" t="n">
-        <v>2.06538270315665</v>
+        <v>0.973236298010161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.952381328935765</v>
+        <v>0.611305430125051</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -3123,22 +3123,22 @@
         <v>67</v>
       </c>
       <c r="B16" t="n">
-        <v>0.429327821434406</v>
+        <v>2.40998441877041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22663605834749</v>
+        <v>1.2445039540724</v>
       </c>
       <c r="D16" t="n">
-        <v>0.446677864428489</v>
+        <v>2.26095529253204</v>
       </c>
       <c r="E16" t="n">
-        <v>0.239202857506723</v>
+        <v>2.12927568135747</v>
       </c>
       <c r="F16" t="n">
-        <v>0.626613556007539</v>
+        <v>1.08710704991399</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -3146,22 +3146,22 @@
         <v>68</v>
       </c>
       <c r="B17" t="n">
-        <v>0.413732476317629</v>
+        <v>2.34994764788725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212835594083724</v>
+        <v>1.18841006228874</v>
       </c>
       <c r="D17" t="n">
-        <v>0.418715057129269</v>
+        <v>2.18819908022511</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217754263382552</v>
+        <v>2.06538270315665</v>
       </c>
       <c r="F17" t="n">
-        <v>0.525919631265435</v>
+        <v>0.952381328935765</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -3169,19 +3169,19 @@
         <v>67</v>
       </c>
       <c r="B18" t="n">
-        <v>0.503680269951231</v>
+        <v>0.429327821434406</v>
       </c>
       <c r="C18" t="n">
-        <v>0.514633608504496</v>
+        <v>0.22663605834749</v>
       </c>
       <c r="D18" t="n">
-        <v>0.707357498928468</v>
+        <v>0.446677864428489</v>
       </c>
       <c r="E18" t="n">
-        <v>0.920152482226094</v>
+        <v>0.239202857506723</v>
       </c>
       <c r="F18" t="n">
-        <v>0.580528330121272</v>
+        <v>0.626613556007539</v>
       </c>
       <c r="G18" t="s">
         <v>49</v>
@@ -3192,19 +3192,19 @@
         <v>68</v>
       </c>
       <c r="B19" t="n">
-        <v>0.379098124870833</v>
+        <v>0.413732476317629</v>
       </c>
       <c r="C19" t="n">
-        <v>0.478666303044131</v>
+        <v>0.212835594083724</v>
       </c>
       <c r="D19" t="n">
-        <v>0.534730258117676</v>
+        <v>0.418715057129269</v>
       </c>
       <c r="E19" t="n">
-        <v>0.746945508725571</v>
+        <v>0.217754263382552</v>
       </c>
       <c r="F19" t="n">
-        <v>0.542362952613242</v>
+        <v>0.525919631265435</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
@@ -3215,22 +3215,22 @@
         <v>67</v>
       </c>
       <c r="B20" t="n">
-        <v>1.12423420480459</v>
+        <v>0.503680269951231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.570796591949822</v>
+        <v>0.514633608504496</v>
       </c>
       <c r="D20" t="n">
-        <v>0.938156729067755</v>
+        <v>0.707357498928468</v>
       </c>
       <c r="E20" t="n">
-        <v>0.786067970119839</v>
+        <v>0.920152482226094</v>
       </c>
       <c r="F20" t="n">
-        <v>0.723583681589626</v>
+        <v>0.580528330121272</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -3238,22 +3238,22 @@
         <v>68</v>
       </c>
       <c r="B21" t="n">
-        <v>1.08669246732291</v>
+        <v>0.379098124870833</v>
       </c>
       <c r="C21" t="n">
-        <v>0.536789586448831</v>
+        <v>0.478666303044131</v>
       </c>
       <c r="D21" t="n">
-        <v>0.893110392100828</v>
+        <v>0.534730258117676</v>
       </c>
       <c r="E21" t="n">
-        <v>0.740446679215298</v>
+        <v>0.746945508725571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.675810852212733</v>
+        <v>0.542362952613242</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -3261,19 +3261,19 @@
         <v>67</v>
       </c>
       <c r="B22" t="n">
-        <v>0.447857691453043</v>
+        <v>1.04855931780411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166947839464165</v>
+        <v>0.591792368287504</v>
       </c>
       <c r="D22" t="n">
-        <v>0.472547103255147</v>
+        <v>0.872996326996813</v>
       </c>
       <c r="E22" t="n">
-        <v>0.627778808967856</v>
+        <v>0.79689702660146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.838177615795556</v>
+        <v>0.957874444023394</v>
       </c>
       <c r="G22" t="s">
         <v>59</v>
@@ -3284,19 +3284,19 @@
         <v>68</v>
       </c>
       <c r="B23" t="n">
-        <v>0.382579933253523</v>
+        <v>1.01204286666122</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122864726221043</v>
+        <v>0.553952250957832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.388774274708687</v>
+        <v>0.82878025311656</v>
       </c>
       <c r="E23" t="n">
-        <v>0.604133380538726</v>
+        <v>0.756496277032524</v>
       </c>
       <c r="F23" t="n">
-        <v>0.770421441291469</v>
+        <v>0.870286122699138</v>
       </c>
       <c r="G23" t="s">
         <v>59</v>
